--- a/Data/Energy consumption by lighting/Energy consumption by lighting.xlsx
+++ b/Data/Energy consumption by lighting/Energy consumption by lighting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joc_h\lightingcdmx\Data\Energy consumption of lighting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joc_h\lightcdmx\Data\Energy consumption by lighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA8263E-B3EA-4556-9456-4D1AF89C6DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DE5F59-5578-4746-A92E-EC3493EB5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3BF92207-629F-4D53-AF81-1A759D73BFB6}"/>
   </bookViews>
@@ -2612,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99819CD-2BE6-4E2C-BF93-4363E06615F9}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
